--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/20191226/客保缺少字段需IBP提供需求测试设计（196004279）/客保缺少字段需ibp提供需求测试设计（196004279）测试结果.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/20191226/客保缺少字段需IBP提供需求测试设计（196004279）/客保缺少字段需ibp提供需求测试设计（196004279）测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="测试概况" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>测试状态</t>
   </si>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>WMZ2019122700529672</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>张轶晟</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -171,161 +167,20 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>综资</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>WMZ2019122700529672</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>WMZ2019122700531311</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>WMZ2019122700529682</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>WMZ2019122700531311</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>CRM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交订单到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t>IBP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后，综资返回服务创建报错信息：【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>INTF-IBP-41</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】：服务创建时发生异常</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">!Could not open JDBC Connection for transaction; nested exception is java.sql.SQLException: Got minus one from a read callDSRA0010E: SQL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，错误码：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>WOP,客保</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>WOP</t>
     </r>
     <r>
       <rPr>
@@ -351,7 +206,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>拆机订单的传输工单到客保</t>
+      <t>新装订单的传输工单到客保</t>
     </r>
     <r>
       <rPr>
@@ -408,7 +263,7 @@
   </si>
   <si>
     <r>
-      <t>WOP</t>
+      <t>IBP</t>
     </r>
     <r>
       <rPr>
@@ -434,7 +289,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>新装订单的传输工单到客保</t>
+      <t>拆机订单的传输工单到客保</t>
     </r>
     <r>
       <rPr>
@@ -700,35 +555,35 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1328,47 +1183,47 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" s="17"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="27">
         <v>2</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="31">
         <v>196004279</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24">
+      <c r="O2" s="30"/>
+      <c r="P2" s="28">
         <v>20200107</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="26"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
@@ -1612,23 +1467,23 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="31"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -1866,11 +1721,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -1880,6 +1730,11 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1888,9 +1743,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1953,30 +1808,30 @@
         <v>196004279</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="22">
         <v>43826.423611111109</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="9"/>
       <c r="K2" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="139.5" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="99" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1987,70 +1842,49 @@
         <v>43</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="22">
+        <v>43826.589583333334</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="22">
-        <v>43826.461111111108</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>45</v>
-      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="22">
-        <v>43826.463888888888</v>
-      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="99" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>196004279</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="22">
-        <v>43826.589583333334</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="21" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="12"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -2058,23 +1892,23 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="10"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="5"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
@@ -2496,18 +2330,6 @@
       <c r="J42" s="9"/>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="12"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
